--- a/SeleniumPython3Tutorial/democart/input.xlsx
+++ b/SeleniumPython3Tutorial/democart/input.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishlay.mishra\workspace\SeleniumPython3Tutorial\democart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>UserName</t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Invoice #40</t>
   </si>
 </sst>
 </file>
@@ -190,19 +194,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -225,44 +229,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -289,15 +293,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -324,7 +327,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -336,166 +338,193 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -526,21 +555,21 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -561,21 +590,21 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>560037</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>9912345673</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -596,21 +625,21 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>883454</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>9912345674</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
@@ -631,21 +660,21 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>123424</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>9912345675</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
@@ -666,21 +695,21 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>864545</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>1912345676</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
@@ -701,21 +730,21 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>565656</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>9912345677</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
@@ -736,10 +765,10 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>987764</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>9912345678</v>
       </c>
     </row>
@@ -750,14 +779,40 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="A5" r:id="rId9"/>
-    <hyperlink ref="A7" r:id="rId10"/>
-    <hyperlink ref="C5" r:id="rId11"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFD6CA9E"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>